--- a/public/sampleUsers.xlsx
+++ b/public/sampleUsers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Sr.</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>shah523</t>
-  </si>
-  <si>
-    <t>Note:All fields are required for every item.</t>
   </si>
 </sst>
 </file>
@@ -454,7 +451,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+      <selection activeCell="J9" sqref="J9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,17 +600,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A11:D11"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
